--- a/Grade2.xlsx
+++ b/Grade2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\CNM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baras\Documents\MSE\phys1320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B12D491-FC7B-4439-A9B4-6448249E762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629312F3-E247-49F5-85F6-9A64E95C923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="150" windowWidth="19350" windowHeight="15705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14904" yWindow="768" windowWidth="14592" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -169,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -724,15 +724,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -753,7 +753,7 @@
     <xf numFmtId="16" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="18" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,7 +762,7 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -774,10 +774,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -912,7 +912,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Grades!$L$19:$L$23</c:f>
+              <c:f>Grades!$L$18:$L$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -935,7 +935,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Grades!$M$19:$M$23</c:f>
+              <c:f>Grades!$M$18:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -978,7 +978,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Grades!$L$19:$L$23</c:f>
+              <c:f>Grades!$L$18:$L$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1001,7 +1001,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Grades!$N$19:$N$23</c:f>
+              <c:f>Grades!$N$18:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2728,13 +2728,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>398286</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>236713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>59619</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>312913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3104,31 +3104,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="A1:P17"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="12" customWidth="1"/>
-    <col min="2" max="5" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" style="12" customWidth="1"/>
+    <col min="2" max="5" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="15" customWidth="1"/>
     <col min="13" max="13" width="5" style="15" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="15" customWidth="1"/>
-    <col min="17" max="19" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="16" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" style="15" customWidth="1"/>
+    <col min="17" max="19" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="R1" s="31"/>
       <c r="S1" s="31"/>
     </row>
-    <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -3189,7 +3189,7 @@
       <c r="E2" s="18"/>
       <c r="F2" s="19"/>
       <c r="G2" s="20">
-        <v>96.2</v>
+        <v>97.1</v>
       </c>
       <c r="H2" s="21">
         <v>91</v>
@@ -3208,11 +3208,11 @@
       </c>
       <c r="M2" s="35"/>
       <c r="N2" s="23">
-        <v>97</v>
+        <v>97.7</v>
       </c>
       <c r="O2" s="20">
-        <f>(0.2*$H2+0.3*$N2+0.2*$I2)/0.7</f>
-        <v>90.800000000000011</v>
+        <f t="shared" ref="O2:O16" si="0">(0.2*$H2+0.3*$N2+0.2*$I2)/0.7</f>
+        <v>91.1</v>
       </c>
       <c r="P2" s="23" t="s">
         <v>23</v>
@@ -3232,7 +3232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>40</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
       <c r="G3" s="20">
-        <v>14.65</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H3" s="21">
         <v>48</v>
@@ -3256,19 +3256,19 @@
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="20">
-        <f t="shared" ref="K3:K17" si="0">(0.2*H3+0.3*G3+0.2*I3)/0.7</f>
-        <v>33.707142857142863</v>
+        <f t="shared" ref="K3:K16" si="1">(0.2*H3+0.3*G3+0.2*I3)/0.7</f>
+        <v>31.62857142857143</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="35"/>
       <c r="N3" s="23">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="O3" s="20">
-        <f>(0.2*$H3+0.3*$N3+0.2*$I3)/0.7</f>
-        <v>34.928571428571438</v>
+        <f t="shared" si="0"/>
+        <v>32.142857142857153</v>
       </c>
       <c r="P3" s="23" t="s">
         <v>27</v>
@@ -3277,7 +3277,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -3293,30 +3293,30 @@
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20">
-        <v>85.98</v>
+        <v>88.6</v>
       </c>
       <c r="H4" s="21">
         <v>78</v>
       </c>
       <c r="I4" s="22">
-        <f t="shared" ref="I3:I17" si="1">D4+(0.45*(100-D4))</f>
+        <f t="shared" ref="I4:I16" si="2">D4+(0.45*(100-D4))</f>
         <v>87.9</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="20">
-        <f t="shared" si="0"/>
-        <v>84.248571428571438</v>
+        <f t="shared" si="1"/>
+        <v>85.371428571428581</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>25</v>
       </c>
       <c r="M4" s="35"/>
       <c r="N4" s="23">
-        <v>88.1</v>
+        <v>90.3</v>
       </c>
       <c r="O4" s="20">
-        <f>(0.2*$H4+0.3*$N4+0.2*$I4)/0.7</f>
-        <v>85.157142857142858</v>
+        <f t="shared" si="0"/>
+        <v>86.1</v>
       </c>
       <c r="P4" s="23" t="s">
         <v>25</v>
@@ -3336,7 +3336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -3352,33 +3352,33 @@
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20">
-        <v>29.64</v>
+        <v>50.4</v>
       </c>
       <c r="H5" s="21">
         <v>89</v>
       </c>
       <c r="I5" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82.95</v>
       </c>
       <c r="J5" s="23"/>
       <c r="K5" s="20">
-        <f t="shared" si="0"/>
-        <v>61.831428571428567</v>
+        <f t="shared" si="1"/>
+        <v>70.728571428571442</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M5" s="35"/>
       <c r="N5" s="36">
-        <v>35.6</v>
+        <v>56.9</v>
       </c>
       <c r="O5" s="20">
-        <f>(0.2*$H5+0.3*$N5+0.2*$I5)/0.7</f>
-        <v>64.385714285714286</v>
+        <f t="shared" si="0"/>
+        <v>73.514285714285734</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7" t="s">
@@ -3395,220 +3395,226 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="18">
-        <v>63.2</v>
+        <v>84.3</v>
       </c>
       <c r="C6" s="18">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D6" s="18">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="19"/>
       <c r="G6" s="20">
-        <v>63.2</v>
+        <v>87</v>
       </c>
       <c r="H6" s="21">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="I6" s="22">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>69.75</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="20">
-        <f t="shared" si="0"/>
-        <v>40.51428571428572</v>
+        <f t="shared" si="1"/>
+        <v>78.928571428571431</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M6" s="35"/>
       <c r="N6" s="36">
-        <v>75.8</v>
+        <v>89</v>
       </c>
       <c r="O6" s="20">
-        <f>(0.2*$H6+0.3*$N6+0.2*$I6)/0.7</f>
-        <v>45.914285714285718</v>
+        <f t="shared" si="0"/>
+        <v>79.785714285714292</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="7"/>
+      <c r="T6" t="s">
+        <v>26</v>
+      </c>
       <c r="V6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>84.3</v>
+        <v>80.34</v>
       </c>
       <c r="C7" s="18">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D7" s="18">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20">
-        <v>84.3</v>
+        <v>81</v>
       </c>
       <c r="H7" s="21">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I7" s="22">
-        <f t="shared" si="1"/>
-        <v>69.75</v>
+        <f t="shared" si="2"/>
+        <v>74.7</v>
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="20">
-        <f t="shared" si="0"/>
-        <v>77.771428571428586</v>
+        <f t="shared" si="1"/>
+        <v>79.485714285714295</v>
       </c>
       <c r="L7" s="36" t="s">
         <v>24</v>
       </c>
       <c r="M7" s="35"/>
       <c r="N7" s="36">
-        <v>87.1</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="O7" s="20">
-        <f>(0.2*$H7+0.3*$N7+0.2*$I7)/0.7</f>
-        <v>78.971428571428575</v>
+        <f t="shared" si="0"/>
+        <v>79.871428571428567</v>
       </c>
       <c r="P7" s="36" t="s">
         <v>24</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="18">
-        <v>80.34</v>
+        <v>67.540000000000006</v>
       </c>
       <c r="C8" s="18">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D8" s="18">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20">
-        <v>80.34</v>
+        <v>70</v>
       </c>
       <c r="H8" s="21">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I8" s="22">
-        <f t="shared" si="1"/>
-        <v>74.7</v>
+        <f t="shared" si="2"/>
+        <v>90.65</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="20">
-        <f t="shared" si="0"/>
-        <v>79.202857142857155</v>
+        <f t="shared" si="1"/>
+        <v>81.614285714285728</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="35"/>
       <c r="N8" s="36">
-        <v>81.599999999999994</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="O8" s="20">
-        <f>(0.2*$H8+0.3*$N8+0.2*$I8)/0.7</f>
-        <v>79.742857142857133</v>
+        <f t="shared" si="0"/>
+        <v>81.871428571428567</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" t="s">
         <v>25</v>
       </c>
-      <c r="V8" t="s">
-        <v>23</v>
-      </c>
       <c r="W8">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="18">
-        <v>67.540000000000006</v>
+        <v>92.95</v>
       </c>
       <c r="C9" s="18">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="18">
-        <v>83</v>
+        <v>97.5</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19"/>
       <c r="G9" s="20">
-        <v>67.540000000000006</v>
+        <v>94.5</v>
       </c>
       <c r="H9" s="21">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" s="22">
-        <f t="shared" si="1"/>
-        <v>90.65</v>
+        <f t="shared" si="2"/>
+        <v>98.625</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="20">
-        <f t="shared" si="0"/>
-        <v>80.560000000000016</v>
+        <f t="shared" si="1"/>
+        <v>94.678571428571445</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="36">
-        <v>68.8</v>
+        <v>95.6</v>
       </c>
       <c r="O9" s="20">
-        <f>(0.2*$H9+0.3*$N9+0.2*$I9)/0.7</f>
-        <v>81.100000000000009</v>
+        <f t="shared" si="0"/>
+        <v>95.149999999999991</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7" t="s">
@@ -3619,55 +3625,55 @@
         <v>23</v>
       </c>
       <c r="V9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="18">
-        <v>92.95</v>
+        <v>41.89</v>
       </c>
       <c r="C10" s="18">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D10" s="18">
-        <v>97.5</v>
+        <v>62.5</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="19"/>
       <c r="G10" s="20">
-        <v>92.95</v>
+        <v>55.6</v>
       </c>
       <c r="H10" s="21">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I10" s="22">
-        <f t="shared" si="1"/>
-        <v>98.625</v>
+        <f t="shared" si="2"/>
+        <v>79.375</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="20">
-        <f t="shared" si="0"/>
-        <v>94.01428571428572</v>
+        <f t="shared" si="1"/>
+        <v>73.935714285714297</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M10" s="35"/>
       <c r="N10" s="36">
-        <v>94.3</v>
+        <v>62.6</v>
       </c>
       <c r="O10" s="20">
-        <f>(0.2*$H10+0.3*$N10+0.2*$I10)/0.7</f>
-        <v>94.592857142857156</v>
+        <f t="shared" si="0"/>
+        <v>76.935714285714297</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7" t="s">
@@ -3678,454 +3684,395 @@
         <v>23</v>
       </c>
       <c r="V10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="18">
-        <v>41.89</v>
+        <v>52.22</v>
       </c>
       <c r="C11" s="18">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D11" s="18">
-        <v>62.5</v>
+        <v>38</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
       <c r="G11" s="20">
-        <v>41.89</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="H11" s="21">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="I11" s="22">
-        <f t="shared" si="1"/>
-        <v>79.375</v>
+        <f t="shared" si="2"/>
+        <v>65.900000000000006</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="20">
-        <f t="shared" si="0"/>
-        <v>68.06</v>
+        <f t="shared" si="1"/>
+        <v>67.428571428571431</v>
       </c>
       <c r="L11" s="36" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="35"/>
       <c r="N11" s="36">
-        <v>50.3</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="O11" s="20">
-        <f>(0.2*$H11+0.3*$N11+0.2*$I11)/0.7</f>
-        <v>71.664285714285711</v>
+        <f t="shared" si="0"/>
+        <v>70.942857142857136</v>
       </c>
       <c r="P11" s="36" t="s">
         <v>24</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="18">
-        <v>52.22</v>
+        <v>62.83</v>
       </c>
       <c r="C12" s="18">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D12" s="18">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20">
-        <v>52.22</v>
+        <v>73.3</v>
       </c>
       <c r="H12" s="21">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="I12" s="22">
-        <f t="shared" si="1"/>
-        <v>65.900000000000006</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="20">
-        <f t="shared" si="0"/>
-        <v>61.780000000000008</v>
+        <f t="shared" si="1"/>
+        <v>82.842857142857142</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="35"/>
       <c r="N12" s="36">
-        <v>62.7</v>
+        <v>78.2</v>
       </c>
       <c r="O12" s="20">
-        <f>(0.2*$H12+0.3*$N12+0.2*$I12)/0.7</f>
-        <v>66.271428571428572</v>
+        <f t="shared" si="0"/>
+        <v>84.942857142857136</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" t="s">
-        <v>26</v>
-      </c>
-      <c r="V12" t="s">
-        <v>27</v>
-      </c>
-      <c r="W12">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="18">
-        <v>62.83</v>
+        <v>94.39</v>
       </c>
       <c r="C13" s="18">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D13" s="18">
-        <v>80</v>
+        <v>56.5</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20">
-        <v>62.83</v>
+        <v>95.9</v>
       </c>
       <c r="H13" s="21">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I13" s="22">
-        <f t="shared" si="1"/>
-        <v>89</v>
+        <f t="shared" si="2"/>
+        <v>76.075000000000003</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="20">
-        <f t="shared" si="0"/>
-        <v>78.355714285714299</v>
+        <f t="shared" si="1"/>
+        <v>86.264285714285734</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13" s="35"/>
       <c r="N13" s="36">
-        <v>68.599999999999994</v>
+        <v>96.5</v>
       </c>
       <c r="O13" s="20">
-        <f>(0.2*$H13+0.3*$N13+0.2*$I13)/0.7</f>
-        <v>80.828571428571436</v>
+        <f t="shared" si="0"/>
+        <v>86.521428571428586</v>
       </c>
       <c r="P13" s="36" t="s">
         <v>25</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="18">
-        <v>94.39</v>
+        <v>88.99</v>
       </c>
       <c r="C14" s="18">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D14" s="18">
-        <v>56.5</v>
+        <v>69</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20">
-        <v>94.39</v>
+        <v>92.1</v>
       </c>
       <c r="H14" s="21">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I14" s="22">
-        <f t="shared" si="1"/>
-        <v>76.075000000000003</v>
+        <f t="shared" si="2"/>
+        <v>82.95</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="20">
-        <f t="shared" si="0"/>
-        <v>85.617142857142866</v>
+        <f t="shared" si="1"/>
+        <v>88.885714285714286</v>
       </c>
       <c r="L14" s="36" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="35"/>
       <c r="N14" s="36">
-        <v>94.8</v>
+        <v>93.2</v>
       </c>
       <c r="O14" s="20">
-        <f>(0.2*$H14+0.3*$N14+0.2*$I14)/0.7</f>
-        <v>85.792857142857159</v>
+        <f t="shared" si="0"/>
+        <v>89.357142857142861</v>
       </c>
       <c r="P14" s="36" t="s">
         <v>25</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="18">
-        <v>88.99</v>
+        <v>85.61</v>
       </c>
       <c r="C15" s="18">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D15" s="18">
-        <v>69</v>
+        <v>43.5</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19"/>
       <c r="G15" s="20">
-        <v>88.99</v>
+        <v>88.6</v>
       </c>
       <c r="H15" s="21">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I15" s="22">
-        <f t="shared" si="1"/>
-        <v>82.95</v>
+        <f t="shared" si="2"/>
+        <v>68.924999999999997</v>
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="20">
-        <f t="shared" si="0"/>
-        <v>87.552857142857164</v>
+        <f t="shared" si="1"/>
+        <v>75.378571428571433</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="35"/>
       <c r="N15" s="36">
-        <v>90.1</v>
+        <v>91.3</v>
       </c>
       <c r="O15" s="20">
-        <f>(0.2*$H15+0.3*$N15+0.2*$I15)/0.7</f>
-        <v>88.028571428571439</v>
+        <f t="shared" si="0"/>
+        <v>76.535714285714292</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="18">
+        <v>89.99</v>
+      </c>
+      <c r="C16" s="18">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="18">
-        <v>85.61</v>
-      </c>
-      <c r="C16" s="18">
-        <v>34</v>
-      </c>
       <c r="D16" s="18">
-        <v>43.5</v>
+        <v>44</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
       <c r="G16" s="20">
-        <v>85.61</v>
+        <v>92.7</v>
       </c>
       <c r="H16" s="21">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I16" s="22">
-        <f t="shared" si="1"/>
-        <v>68.924999999999997</v>
+        <f t="shared" si="2"/>
+        <v>69.2</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="20">
-        <f t="shared" si="0"/>
-        <v>74.097142857142856</v>
+        <f t="shared" si="1"/>
+        <v>73.785714285714292</v>
       </c>
       <c r="L16" s="36" t="s">
         <v>24</v>
       </c>
       <c r="M16" s="35"/>
       <c r="N16" s="36">
-        <v>89.3</v>
+        <v>94.7</v>
       </c>
       <c r="O16" s="20">
-        <f>(0.2*$H16+0.3*$N16+0.2*$I16)/0.7</f>
-        <v>75.678571428571431</v>
+        <f t="shared" si="0"/>
+        <v>74.642857142857153</v>
       </c>
       <c r="P16" s="36" t="s">
         <v>24</v>
       </c>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7" t="s">
-        <v>33</v>
+      <c r="R16" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="18">
-        <v>89.99</v>
-      </c>
-      <c r="C17" s="18">
+    <row r="18" spans="12:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="18">
-        <v>44</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20">
-        <v>89.99</v>
-      </c>
-      <c r="H17" s="21">
-        <v>50</v>
-      </c>
-      <c r="I17" s="22">
-        <f t="shared" si="1"/>
-        <v>69.2</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="20">
-        <f t="shared" si="0"/>
-        <v>72.624285714285719</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="36">
-        <v>92.7</v>
-      </c>
-      <c r="O17" s="20">
-        <f>(0.2*$H17+0.3*$N17+0.2*$I17)/0.7</f>
-        <v>73.785714285714292</v>
-      </c>
-      <c r="P17" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="S17" s="7"/>
-      <c r="T17" t="s">
-        <v>27</v>
-      </c>
+      <c r="M18" s="15">
+        <v>2</v>
+      </c>
+      <c r="N18" s="16">
+        <v>2</v>
+      </c>
+      <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L19" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M19" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N19" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" s="16">
         <v>5</v>
       </c>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L21" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M21" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L22" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M22" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" s="16">
         <v>2</v>
       </c>
       <c r="O22" s="15"/>
-    </row>
-    <row r="23" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="15">
-        <v>2</v>
-      </c>
-      <c r="N23" s="16">
-        <v>2</v>
-      </c>
-      <c r="O23" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4142,12 +4089,12 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4177,7 +4124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -4203,7 +4150,7 @@
         <v>23.944499999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4229,7 +4176,7 @@
         <v>73.207999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -4255,7 +4202,7 @@
         <v>78.503</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4281,7 +4228,7 @@
         <v>62.510999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4307,7 +4254,7 @@
         <v>80.317000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -4333,7 +4280,7 @@
         <v>80.398499999999984</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -4359,7 +4306,7 @@
         <v>82.167999999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -4385,7 +4332,7 @@
         <v>88.709500000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -4411,7 +4358,7 @@
         <v>74.454000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -4437,7 +4384,7 @@
         <v>49.464500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -4463,7 +4410,7 @@
         <v>71.677500000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -4489,7 +4436,7 @@
         <v>89.671500000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -4515,7 +4462,7 @@
         <v>94.962999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -4541,7 +4488,7 @@
         <v>92.468499999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -4567,7 +4514,7 @@
         <v>70.970500000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -4593,7 +4540,7 @@
         <v>64.662000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -4615,7 +4562,7 @@
         <v>19.0185</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
